--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1f10-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1f10-Il1r1.xlsx
@@ -543,10 +543,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.949544333333334</v>
+        <v>2.751441333333334</v>
       </c>
       <c r="H2">
-        <v>8.848633000000001</v>
+        <v>8.254324</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.785488</v>
+        <v>16.087096</v>
       </c>
       <c r="N2">
-        <v>53.356464</v>
+        <v>48.261288</v>
       </c>
       <c r="O2">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="P2">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="Q2">
-        <v>52.45908534596801</v>
+        <v>44.26270086770133</v>
       </c>
       <c r="R2">
-        <v>472.1317681137121</v>
+        <v>398.364307809312</v>
       </c>
       <c r="S2">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="T2">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.949544333333334</v>
+        <v>2.751441333333334</v>
       </c>
       <c r="H3">
-        <v>8.848633000000001</v>
+        <v>8.254324</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>286.19445</v>
       </c>
       <c r="O3">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888087</v>
       </c>
       <c r="P3">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888088</v>
       </c>
       <c r="Q3">
-        <v>281.3810727429834</v>
+        <v>262.4824130335334</v>
       </c>
       <c r="R3">
-        <v>2532.42965468685</v>
+        <v>2362.3417173018</v>
       </c>
       <c r="S3">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888087</v>
       </c>
       <c r="T3">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.949544333333334</v>
+        <v>2.751441333333334</v>
       </c>
       <c r="H4">
-        <v>8.848633000000001</v>
+        <v>8.254324</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2910066666666667</v>
+        <v>0.5200936666666667</v>
       </c>
       <c r="N4">
-        <v>0.87302</v>
+        <v>1.560281</v>
       </c>
       <c r="O4">
-        <v>0.002354159251886579</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="P4">
-        <v>0.002354159251886578</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="Q4">
-        <v>0.858337064628889</v>
+        <v>1.431007211671556</v>
       </c>
       <c r="R4">
-        <v>7.725033581660001</v>
+        <v>12.879064905044</v>
       </c>
       <c r="S4">
-        <v>0.002354159251886579</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="T4">
-        <v>0.002354159251886578</v>
+        <v>0.004083440825819921</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.949544333333334</v>
+        <v>2.751441333333334</v>
       </c>
       <c r="H5">
-        <v>8.848633000000001</v>
+        <v>8.254324</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.332356333333335</v>
+        <v>14.15205133333333</v>
       </c>
       <c r="N5">
-        <v>27.997069</v>
+        <v>42.456154</v>
       </c>
       <c r="O5">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="P5">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="Q5">
-        <v>27.52619873963079</v>
+        <v>38.93853898998844</v>
       </c>
       <c r="R5">
-        <v>247.7357886566771</v>
+        <v>350.446850909896</v>
       </c>
       <c r="S5">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="T5">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.949544333333334</v>
+        <v>2.751441333333334</v>
       </c>
       <c r="H6">
-        <v>8.848633000000001</v>
+        <v>8.254324</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.58116</v>
+        <v>0.794831</v>
       </c>
       <c r="N6">
-        <v>1.74348</v>
+        <v>2.384493</v>
       </c>
       <c r="O6">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="P6">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="Q6">
-        <v>1.71415718476</v>
+        <v>2.186930866414667</v>
       </c>
       <c r="R6">
-        <v>15.42741466284</v>
+        <v>19.682377797732</v>
       </c>
       <c r="S6">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="T6">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.949544333333334</v>
+        <v>2.751441333333334</v>
       </c>
       <c r="H7">
-        <v>8.848633000000001</v>
+        <v>8.254324</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2256796666666666</v>
+        <v>0.4143026666666667</v>
       </c>
       <c r="N7">
-        <v>0.6770389999999999</v>
+        <v>1.242908</v>
       </c>
       <c r="O7">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="P7">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="Q7">
-        <v>0.6656521819652222</v>
+        <v>1.139929481576889</v>
       </c>
       <c r="R7">
-        <v>5.990869637687</v>
+        <v>10.259365334192</v>
       </c>
       <c r="S7">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="T7">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
     </row>
   </sheetData>
